--- a/requisitos/Circuito Tere Verde Requisitos.xlsx
+++ b/requisitos/Circuito Tere Verde Requisitos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RAFAEL MENDES\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETOS\Producao\Circuito_Tere_Verde\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39F2BBA2-1EE1-48E8-8CC6-40B769363305}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB77CA3-DCA3-4A7D-A57E-09A8CAC377E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Requisitos Funcionais" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>Código</t>
   </si>
@@ -65,99 +65,12 @@
     <t>RF10</t>
   </si>
   <si>
-    <t>Consulta de informações</t>
-  </si>
-  <si>
-    <t>Detalhes dos parques</t>
-  </si>
-  <si>
-    <t>Página inicial</t>
-  </si>
-  <si>
-    <t>Login administrativo</t>
-  </si>
-  <si>
-    <t>Gestão de conteúdo</t>
-  </si>
-  <si>
-    <t>Gestão de disponibilidade</t>
-  </si>
-  <si>
-    <t>Publicação de notícias</t>
-  </si>
-  <si>
-    <t>Busca e filtros</t>
-  </si>
-  <si>
-    <t>Condições das trilhas</t>
-  </si>
-  <si>
-    <t>Interface responsiva</t>
-  </si>
-  <si>
-    <t>Permitir que visitantes acessem informações sobre parques e atrativos naturais (trilhas, cachoeiras, biodiversidade e eventos).</t>
-  </si>
-  <si>
-    <t>Apresentar informações detalhadas sobre os três parques principais: Parque Nacional da Serra dos Órgãos, Parque Estadual dos Três Picos e Parque Natural Municipal Montanhas de Teresópolis.</t>
-  </si>
-  <si>
-    <t>Disponibilizar página inicial com destaques de atrações, eventos e novidades.</t>
-  </si>
-  <si>
-    <t>Permitir que administradores façam login para acessar área restrita do site.</t>
-  </si>
-  <si>
-    <t>Permitir que administradores cadastrem, editem e removam informações sobre trilhas, eventos, cachoeiras e biodiversidade.</t>
-  </si>
-  <si>
-    <t>Disponibilizar área administrativa para configurar horários de funcionamento, temporadas e disponibilidade das atrações.</t>
-  </si>
-  <si>
-    <t>Permitir que administradores publiquem notícias e atualizações sobre os parques.</t>
-  </si>
-  <si>
-    <t>Permitir busca e filtragem de trilhas e atrações por tipo, dificuldade ou localização.</t>
-  </si>
-  <si>
-    <t>Apresentar condições atualizadas das trilhas (abertas, fechadas, manutenção etc.).</t>
-  </si>
-  <si>
-    <t>Garantir que o site seja responsivo, adaptando-se a dispositivos móveis e desktops.</t>
-  </si>
-  <si>
     <t>Alta</t>
   </si>
   <si>
     <t>Média</t>
   </si>
   <si>
-    <t>RNF01</t>
-  </si>
-  <si>
-    <t>RNF02</t>
-  </si>
-  <si>
-    <t>RNF03</t>
-  </si>
-  <si>
-    <t>RNF04</t>
-  </si>
-  <si>
-    <t>RNF05</t>
-  </si>
-  <si>
-    <t>RNF06</t>
-  </si>
-  <si>
-    <t>RNF07</t>
-  </si>
-  <si>
-    <t>RNF08</t>
-  </si>
-  <si>
-    <t>RNF09</t>
-  </si>
-  <si>
     <t>RNF10</t>
   </si>
   <si>
@@ -197,12 +110,6 @@
     <t>A interface deve ser intuitiva, clara e agradável, com navegação fluida para todos os tipos de usuários.</t>
   </si>
   <si>
-    <t>O sistema deve estar disponível 24h por dia, 7 dias por semana, exceto durante manutenções programadas.</t>
-  </si>
-  <si>
-    <t>Deve garantir a segurança dos dados pessoais dos administradores, incluindo autenticação e criptografia.</t>
-  </si>
-  <si>
     <t>O site deve ser compatível com os principais navegadores (Chrome, Edge, Firefox, Safari).</t>
   </si>
   <si>
@@ -219,13 +126,151 @@
   </si>
   <si>
     <t>Deve haver rotina de backup automático das informações cadastradas pelos administradores.</t>
+  </si>
+  <si>
+    <t>Página Principal</t>
+  </si>
+  <si>
+    <t>Sessão 1</t>
+  </si>
+  <si>
+    <t>Filtros</t>
+  </si>
+  <si>
+    <t>Postagens</t>
+  </si>
+  <si>
+    <t>Parques</t>
+  </si>
+  <si>
+    <t>Sessão 3</t>
+  </si>
+  <si>
+    <t>Manutenção</t>
+  </si>
+  <si>
+    <t>Principal</t>
+  </si>
+  <si>
+    <t>Publicação das Postagens</t>
+  </si>
+  <si>
+    <t>Dados 1</t>
+  </si>
+  <si>
+    <t>Dados 2</t>
+  </si>
+  <si>
+    <t>Dados 3</t>
+  </si>
+  <si>
+    <t>RF11</t>
+  </si>
+  <si>
+    <t>RF12</t>
+  </si>
+  <si>
+    <t>RF13</t>
+  </si>
+  <si>
+    <t>RF14</t>
+  </si>
+  <si>
+    <t>Baixa</t>
+  </si>
+  <si>
+    <t>O sistema deve estar disponível 24h por dia, 7 dias por semana, salvo em manutenções e problemas técnicos.</t>
+  </si>
+  <si>
+    <t>RNF11</t>
+  </si>
+  <si>
+    <t>O sistema deve garantir a segurança dos dados pessoais dos administradores, incluindo autenticação  e criptografia.</t>
+  </si>
+  <si>
+    <t>RNF1</t>
+  </si>
+  <si>
+    <t>RNF2</t>
+  </si>
+  <si>
+    <t>RNF3</t>
+  </si>
+  <si>
+    <t>RNF4</t>
+  </si>
+  <si>
+    <t>RNF5</t>
+  </si>
+  <si>
+    <t>RNF6</t>
+  </si>
+  <si>
+    <t>RNF7</t>
+  </si>
+  <si>
+    <t>RNF8</t>
+  </si>
+  <si>
+    <t>RNF9</t>
+  </si>
+  <si>
+    <t>A página principal deve ter uma área que possa selecionar o parque e ver as ultimas postagens sobre vários assuntos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A página principal deve ter uma área destinada as postagens feitas pelo administrador do parque que será selecionado e filtrado pelo usuário. </t>
+  </si>
+  <si>
+    <t>Na página principal no carde que é mostrado na área de postagens deve ter caso o Administrador esteja logado um botas de "Opções" para ele poder Editar ou Excluir a postagem.</t>
+  </si>
+  <si>
+    <t>O sistema deve ter uma página de publicação de postagem, onde o administrador poderá postar todos os tipos de postagens relevantes aso parques: Parque Nacional da Serra dos Órgãos, Parque Estadual dos Três Picos e Parque Natural Municipal Montanhas de Teresópolis.</t>
+  </si>
+  <si>
+    <t>A página de publicação deve ter uma seleção dos três parques destinado a saber para qual deles vai ser a postagem.</t>
+  </si>
+  <si>
+    <t>A página de publicação deve ter uma seleção do tipo da postagem, podendo ser: Trilhas, Cachoeiras, Biodiversidade, Eventos, Novidades, Atrações.</t>
+  </si>
+  <si>
+    <t>A página de publicação deve ter um botão para selecionar a foto da publicação, e uma pré-visualização dela.</t>
+  </si>
+  <si>
+    <t>A página de publicação deve ter uma área para digitar o Titulo e a Descrição da publicação.</t>
+  </si>
+  <si>
+    <t>A página de publicação deve ter uma área para selecionar as datas da publicação e datas do evento caso tenha.</t>
+  </si>
+  <si>
+    <t>O sistema deve ter uma página principal publica onde os usuários possam ver todas as informações  sobre os  três parques principais: Parque Nacional da Serra dos Órgãos, Parque Estadual dos Três Picos e Parque Natural Municipal Montanhas de Teresópolis.</t>
+  </si>
+  <si>
+    <t>O sistema deve ter um Login para os Administradores, assim podendo realizar as publicações de forma segura.</t>
+  </si>
+  <si>
+    <t>A página principal deve ter um cabeçalho com Titulo e botões de ação (Login para o Administrador e Sobre)</t>
+  </si>
+  <si>
+    <t>A página principal deve ter uma área que contenha as ultimas notícias gerais sobre os três parques.</t>
+  </si>
+  <si>
+    <t>A Página inicial deve ter um filtro para facilitar o usuário a ver as postagens relevantes. Esses filtros são: Trilhas, Cachoeiras, Biodiversidade, Eventos, Novidades, Atrações.</t>
+  </si>
+  <si>
+    <t>Na página principal na área de postagens deve mostrar um carde com a postagem feita pelo Administrador, nele será exibido uma foto (caso tenha), titulo, descrição, data da postagem.</t>
+  </si>
+  <si>
+    <t>Cadastro de Administradores</t>
+  </si>
+  <si>
+    <t>RF15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,15 +279,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="14"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -255,8 +330,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -279,17 +378,114 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,346 +791,539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="90.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" style="7" customWidth="1"/>
+    <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+    </row>
+    <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="B8" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="10"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
+      <c r="B14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="13"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="13"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="19"/>
+      <c r="B30" s="20"/>
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="19"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="19"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="19"/>
+      <c r="B33" s="20"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="22"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="19"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="22"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="19"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="22"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="19"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="22"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="19"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="19"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="22"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="19"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="22"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="22"/>
     </row>
   </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="4" customWidth="1"/>
     <col min="3" max="3" width="90.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>46</v>
+      <c r="A2" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="D12" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>34</v>
-      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/requisitos/Circuito Tere Verde Requisitos.xlsx
+++ b/requisitos/Circuito Tere Verde Requisitos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\PROJETOS\Producao\Circuito_Tere_Verde\requisitos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB77CA3-DCA3-4A7D-A57E-09A8CAC377E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4AE0C8-7664-4771-95F1-FB4A2834DC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="82">
   <si>
     <t>Código</t>
   </si>
@@ -264,6 +264,9 @@
   </si>
   <si>
     <t>RF15</t>
+  </si>
+  <si>
+    <t>Biaxa</t>
   </si>
 </sst>
 </file>
@@ -419,7 +422,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -427,9 +430,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -439,9 +439,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -458,33 +476,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -793,337 +784,337 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="90.7109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="17.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
     </row>
     <row r="3" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D8" s="14" t="s">
+      <c r="D8" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="14" t="s">
+      <c r="D10" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11"/>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="13"/>
-    </row>
-    <row r="12" spans="1:4" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="10"/>
-    </row>
-    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
+    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="16"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="18"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="18"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="14" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="11"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="13"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="13"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="19"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="22"/>
+      <c r="A30" s="9"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="12"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="19"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
+      <c r="A31" s="9"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="19"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
+      <c r="A32" s="9"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
+      <c r="A33" s="9"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="19"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="22"/>
+      <c r="A34" s="9"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="19"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="21"/>
-      <c r="D35" s="22"/>
+      <c r="A35" s="9"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="19"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="21"/>
-      <c r="D36" s="22"/>
+      <c r="A36" s="9"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="19"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="21"/>
-      <c r="D37" s="22"/>
+      <c r="A37" s="9"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="19"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="21"/>
-      <c r="D38" s="22"/>
+      <c r="A38" s="9"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="19"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="21"/>
-      <c r="D39" s="22"/>
+      <c r="A39" s="9"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="12"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="21"/>
-      <c r="D40" s="22"/>
+      <c r="A40" s="9"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -1143,182 +1134,182 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.85546875" style="6" customWidth="1"/>
-    <col min="2" max="2" width="25.7109375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.85546875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="90.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="16" t="s">
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="17" t="s">
+      <c r="D8" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>24</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="16" t="s">
+      <c r="D11" s="6" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="18" t="s">
+      <c r="D12" s="8" t="s">
         <v>51</v>
       </c>
     </row>
